--- a/public/fileStore/import_template/import_data_template.xlsx
+++ b/public/fileStore/import_template/import_data_template.xlsx
@@ -1,54 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900FCDF7-8F1C-4D36-BA34-C6F33BB60E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1EFC3D-04DB-4F36-A52D-1B7C502776B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="830" yWindow="1300" windowWidth="17840" windowHeight="8080" xr2:uid="{90A88BEA-A08E-4489-9DC7-3195692949E6}"/>
+    <workbookView xWindow="2760" yWindow="2760" windowWidth="14400" windowHeight="7810" xr2:uid="{5E4D20C7-D269-441D-A8EC-D6C44E917C10}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="product_import_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>ProductCode</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>BuyPrice</t>
-  </si>
-  <si>
-    <t>SellPrice</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Expiry</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Product Name*</t>
+  </si>
+  <si>
+    <t>Brand*</t>
+  </si>
+  <si>
+    <t>Pack Size*</t>
+  </si>
+  <si>
+    <t>Unit*</t>
+  </si>
+  <si>
+    <t>Min Stock*</t>
+  </si>
+  <si>
+    <t>Max Stock*</t>
   </si>
   <si>
     <t>Barcode</t>
@@ -57,20 +46,53 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Sample name</t>
-  </si>
-  <si>
-    <t>Category name</t>
+    <t>Type (stockable/consumable)</t>
+  </si>
+  <si>
+    <t>Status (1=active, 0=inactive)</t>
+  </si>
+  <si>
+    <t>100 tablets</t>
+  </si>
+  <si>
+    <t>tablets</t>
+  </si>
+  <si>
+    <t>stockable</t>
+  </si>
+  <si>
+    <t>MEDICINES</t>
+  </si>
+  <si>
+    <t>Product Code*</t>
+  </si>
+  <si>
+    <t>Buy Price*</t>
+  </si>
+  <si>
+    <t>Sell Price*</t>
+  </si>
+  <si>
+    <t>Quantity*</t>
+  </si>
+  <si>
+    <t>Expiry*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jun/28</t>
+  </si>
+  <si>
+    <t>Sample Brand 2</t>
+  </si>
+  <si>
+    <t>mabibo 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]mmm/yy;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,23 +101,320 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -104,42 +423,207 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,190 +934,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D9D0DB-2469-4901-A58E-33835553D65E}">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEEFF03-B454-4866-8B40-EA869BDF4730}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>100001</v>
+        <v>18556</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>1234567890</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+      <c r="M2">
         <v>2000</v>
       </c>
-      <c r="D2" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E2" s="3">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5">
-        <v>44713</v>
-      </c>
-      <c r="G2" s="7">
-        <v>42345654</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F39"/>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>